--- a/Frontend/dist/file/demoexcelfile.xlsx
+++ b/Frontend/dist/file/demoexcelfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mega\Emailcon\Emailcon-template\my-app\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mega\Emailcon-live-vite\Frontend\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304B233F-F1B1-46EC-9951-80B499FDB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B84CD3-ABF1-4DE2-B6DD-07DB7890E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Fname</t>
   </si>
@@ -36,12 +36,6 @@
     <t>College</t>
   </si>
   <si>
-    <t>kiot</t>
-  </si>
-  <si>
-    <t>sona</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>Ksr</t>
-  </si>
-  <si>
     <t>demo1@gmail.com</t>
   </si>
   <si>
@@ -70,6 +61,12 @@
   </si>
   <si>
     <t>demo3@gmail.com</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -122,10 +119,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,9 +440,10 @@
     <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,68 +453,80 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45708</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="3">
+        <v>45448</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
     </row>
   </sheetData>

--- a/Frontend/dist/file/demoexcelfile.xlsx
+++ b/Frontend/dist/file/demoexcelfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mega\Emailcon-live-vite\Frontend\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B84CD3-ABF1-4DE2-B6DD-07DB7890E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E35417-D6A5-4FA6-BFE5-D8EB395BE790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,7 +456,7 @@
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
